--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2293.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2293.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.482725189293169</v>
+        <v>1.174965858459473</v>
       </c>
       <c r="B1">
-        <v>3.645305024227973</v>
+        <v>2.352607488632202</v>
       </c>
       <c r="C1">
-        <v>3.237018835240943</v>
+        <v>3.408670663833618</v>
       </c>
       <c r="D1">
-        <v>3.556766335367196</v>
+        <v>1.679078459739685</v>
       </c>
       <c r="E1">
-        <v>1.730790485198029</v>
+        <v>1.213903665542603</v>
       </c>
     </row>
   </sheetData>
